--- a/Example4_2020EntryLocations/fromBot_StudentSchedules.xlsx
+++ b/Example4_2020EntryLocations/fromBot_StudentSchedules.xlsx
@@ -130,109 +130,109 @@
     <t>Tuesday, Feb. 11 3:45 - 4:15</t>
   </si>
   <si>
+    <t>Wodarz</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Alejandra Verdugo</t>
+  </si>
+  <si>
+    <t>Swarup</t>
+  </si>
+  <si>
+    <t>Eric Potma</t>
+  </si>
+  <si>
+    <t>Marcus Seldin</t>
+  </si>
+  <si>
+    <t>Armando Villalta</t>
+  </si>
+  <si>
+    <t>Dae Seok Eom</t>
+  </si>
+  <si>
+    <t>Brody</t>
+  </si>
+  <si>
+    <t>Jin Yu</t>
+  </si>
+  <si>
+    <t>Matt McHenry</t>
+  </si>
+  <si>
+    <t>Steven Allison</t>
+  </si>
+  <si>
+    <t>Mortazavi</t>
+  </si>
+  <si>
     <t>Jun Allard</t>
   </si>
   <si>
-    <t>Jin Yu</t>
+    <t>Ilhem Messaoudi</t>
+  </si>
+  <si>
+    <t>Tim Downing</t>
+  </si>
+  <si>
+    <t>Wunderlich</t>
+  </si>
+  <si>
+    <t>Chang Liu</t>
   </si>
   <si>
     <t>Knut Solna</t>
   </si>
   <si>
-    <t>Wodarz</t>
+    <t>Wayne Hayes</t>
+  </si>
+  <si>
+    <t>Schilling</t>
+  </si>
+  <si>
+    <t>Scott Atwood</t>
+  </si>
+  <si>
+    <t>Kyoko Yokomori</t>
+  </si>
+  <si>
+    <t>Ranz</t>
+  </si>
+  <si>
+    <t>Qing Nie</t>
+  </si>
+  <si>
+    <t>Lander</t>
+  </si>
+  <si>
+    <t>Steve Frank</t>
+  </si>
+  <si>
+    <t>Siryaporn</t>
+  </si>
+  <si>
+    <t>Anya Grosberg</t>
+  </si>
+  <si>
+    <t>Celia Faiola</t>
+  </si>
+  <si>
+    <t>Devon Lawson</t>
+  </si>
+  <si>
+    <t>Jack Xin</t>
+  </si>
+  <si>
+    <t>Bruce Blumberg</t>
   </si>
   <si>
     <t>Grace Yuh Chwen Lee</t>
   </si>
   <si>
-    <t>Swarup</t>
-  </si>
-  <si>
-    <t>Alejandra Verdugo</t>
-  </si>
-  <si>
-    <t>Jack Xin</t>
-  </si>
-  <si>
-    <t>Matt McHenry</t>
-  </si>
-  <si>
-    <t>Mortazavi</t>
-  </si>
-  <si>
-    <t>Armando Villalta</t>
-  </si>
-  <si>
-    <t>Schilling</t>
-  </si>
-  <si>
-    <t>Eric Potma</t>
-  </si>
-  <si>
-    <t>Scott Atwood</t>
-  </si>
-  <si>
-    <t>Marcus Seldin</t>
-  </si>
-  <si>
-    <t>Devon Lawson</t>
-  </si>
-  <si>
-    <t>Wayne Hayes</t>
-  </si>
-  <si>
-    <t>Brody</t>
-  </si>
-  <si>
-    <t>Dae Seok Eom</t>
-  </si>
-  <si>
-    <t>Celia Faiola</t>
-  </si>
-  <si>
-    <t>Siryaporn</t>
-  </si>
-  <si>
-    <t>Bruce Blumberg</t>
-  </si>
-  <si>
-    <t>Kyoko Yokomori</t>
-  </si>
-  <si>
     <t>Whiteson</t>
-  </si>
-  <si>
-    <t>Ilhem Messaoudi</t>
-  </si>
-  <si>
-    <t>Ranz</t>
-  </si>
-  <si>
-    <t>Steve Frank</t>
-  </si>
-  <si>
-    <t>Lander</t>
-  </si>
-  <si>
-    <t>Tim Downing</t>
-  </si>
-  <si>
-    <t>Anya Grosberg</t>
-  </si>
-  <si>
-    <t>Steven Allison</t>
-  </si>
-  <si>
-    <t>Qing Nie</t>
-  </si>
-  <si>
-    <t>Chang Liu</t>
-  </si>
-  <si>
-    <t>Wunderlich</t>
   </si>
 </sst>
 </file>
@@ -684,79 +684,79 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" t="s">
         <v>51</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -764,82 +764,82 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" t="s">
-        <v>38</v>
-      </c>
       <c r="Q3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="R3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s">
         <v>51</v>
       </c>
       <c r="U3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="X3" t="s">
         <v>38</v>
       </c>
       <c r="Y3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="Z3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -847,82 +847,82 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
         <v>38</v>
       </c>
       <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" t="s">
-        <v>61</v>
-      </c>
-      <c r="V4" t="s">
-        <v>38</v>
-      </c>
       <c r="W4" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="Z4" t="s">
         <v>49</v>
       </c>
       <c r="AA4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -930,82 +930,82 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" t="s">
         <v>60</v>
       </c>
-      <c r="G5" t="s">
+      <c r="W5" t="s">
         <v>51</v>
       </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R5" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U5" t="s">
-        <v>70</v>
-      </c>
-      <c r="V5" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" t="s">
-        <v>44</v>
-      </c>
       <c r="X5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Y5" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="AA5" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -1016,79 +1016,79 @@
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
         <v>51</v>
       </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" t="s">
-        <v>53</v>
-      </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="S6" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="U6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="V6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="Y6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Z6" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AA6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1096,82 +1096,82 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="R7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="V7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="W7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="X7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="Y7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AA7" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1179,82 +1179,82 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>52</v>
       </c>
       <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" t="s">
+        <v>59</v>
+      </c>
+      <c r="U8" t="s">
+        <v>72</v>
+      </c>
+      <c r="V8" t="s">
         <v>55</v>
       </c>
-      <c r="G8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" t="s">
-        <v>53</v>
-      </c>
-      <c r="S8" t="s">
-        <v>58</v>
-      </c>
-      <c r="T8" t="s">
-        <v>68</v>
-      </c>
-      <c r="U8" t="s">
-        <v>42</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" t="s">
         <v>57</v>
       </c>
-      <c r="W8" t="s">
-        <v>71</v>
-      </c>
-      <c r="X8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>38</v>
-      </c>
       <c r="AA8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1262,82 +1262,82 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
       </c>
       <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W9" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R9" t="s">
-        <v>38</v>
-      </c>
-      <c r="S9" t="s">
-        <v>49</v>
-      </c>
-      <c r="T9" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" t="s">
-        <v>72</v>
-      </c>
-      <c r="V9" t="s">
-        <v>63</v>
-      </c>
-      <c r="W9" t="s">
-        <v>67</v>
-      </c>
-      <c r="X9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>52</v>
-      </c>
       <c r="Z9" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AA9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1345,82 +1345,82 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="L10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" t="s">
         <v>44</v>
       </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" t="s">
-        <v>63</v>
-      </c>
-      <c r="S10" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10" t="s">
-        <v>38</v>
-      </c>
-      <c r="U10" t="s">
-        <v>38</v>
-      </c>
-      <c r="V10" t="s">
-        <v>41</v>
-      </c>
-      <c r="W10" t="s">
-        <v>38</v>
-      </c>
-      <c r="X10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>52</v>
-      </c>
       <c r="AA10" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1428,82 +1428,82 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" t="s">
+        <v>71</v>
+      </c>
+      <c r="T11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="U11" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" t="s">
+        <v>67</v>
+      </c>
+      <c r="W11" t="s">
         <v>52</v>
       </c>
-      <c r="J11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>58</v>
-      </c>
-      <c r="R11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" t="s">
-        <v>38</v>
-      </c>
-      <c r="T11" t="s">
-        <v>39</v>
-      </c>
-      <c r="U11" t="s">
-        <v>38</v>
-      </c>
-      <c r="V11" t="s">
-        <v>38</v>
-      </c>
-      <c r="W11" t="s">
-        <v>41</v>
-      </c>
       <c r="X11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="Z11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA11" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1511,82 +1511,82 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -1594,82 +1594,82 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" t="s">
-        <v>38</v>
-      </c>
-      <c r="P13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>47</v>
-      </c>
       <c r="R13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="T13" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="U13" t="s">
         <v>39</v>
       </c>
       <c r="V13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="W13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="X13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z13" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="AA13" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Example4_2020EntryLocations/fromBot_StudentSchedules.xlsx
+++ b/Example4_2020EntryLocations/fromBot_StudentSchedules.xlsx
@@ -130,109 +130,109 @@
     <t>Tuesday, Feb. 11 3:45 - 4:15</t>
   </si>
   <si>
+    <t>Eric Potma</t>
+  </si>
+  <si>
+    <t>Dae Seok Eom</t>
+  </si>
+  <si>
+    <t>Schilling</t>
+  </si>
+  <si>
+    <t>Alejandra Verdugo</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Kyoko Yokomori</t>
+  </si>
+  <si>
+    <t>Knut Solna</t>
+  </si>
+  <si>
+    <t>Jin Yu</t>
+  </si>
+  <si>
+    <t>Grace Yuh Chwen Lee</t>
+  </si>
+  <si>
+    <t>Armando Villalta</t>
+  </si>
+  <si>
+    <t>Scott Atwood</t>
+  </si>
+  <si>
+    <t>Marcus Seldin</t>
+  </si>
+  <si>
+    <t>Ranz</t>
+  </si>
+  <si>
+    <t>Swarup</t>
+  </si>
+  <si>
+    <t>Jun Allard</t>
+  </si>
+  <si>
+    <t>Anya Grosberg</t>
+  </si>
+  <si>
+    <t>Qing Nie</t>
+  </si>
+  <si>
+    <t>Mortazavi</t>
+  </si>
+  <si>
+    <t>Wayne Hayes</t>
+  </si>
+  <si>
+    <t>Wunderlich</t>
+  </si>
+  <si>
+    <t>Bruce Blumberg</t>
+  </si>
+  <si>
     <t>Wodarz</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Alejandra Verdugo</t>
-  </si>
-  <si>
-    <t>Swarup</t>
-  </si>
-  <si>
-    <t>Eric Potma</t>
-  </si>
-  <si>
-    <t>Marcus Seldin</t>
-  </si>
-  <si>
-    <t>Armando Villalta</t>
-  </si>
-  <si>
-    <t>Dae Seok Eom</t>
+    <t>Matt McHenry</t>
+  </si>
+  <si>
+    <t>Jack Xin</t>
+  </si>
+  <si>
+    <t>Lander</t>
+  </si>
+  <si>
+    <t>Ilhem Messaoudi</t>
+  </si>
+  <si>
+    <t>Steven Allison</t>
   </si>
   <si>
     <t>Brody</t>
   </si>
   <si>
-    <t>Jin Yu</t>
-  </si>
-  <si>
-    <t>Matt McHenry</t>
-  </si>
-  <si>
-    <t>Steven Allison</t>
-  </si>
-  <si>
-    <t>Mortazavi</t>
-  </si>
-  <si>
-    <t>Jun Allard</t>
-  </si>
-  <si>
-    <t>Ilhem Messaoudi</t>
+    <t>Steve Frank</t>
+  </si>
+  <si>
+    <t>Siryaporn</t>
+  </si>
+  <si>
+    <t>Celia Faiola</t>
   </si>
   <si>
     <t>Tim Downing</t>
   </si>
   <si>
-    <t>Wunderlich</t>
-  </si>
-  <si>
     <t>Chang Liu</t>
   </si>
   <si>
-    <t>Knut Solna</t>
-  </si>
-  <si>
-    <t>Wayne Hayes</t>
-  </si>
-  <si>
-    <t>Schilling</t>
-  </si>
-  <si>
-    <t>Scott Atwood</t>
-  </si>
-  <si>
-    <t>Kyoko Yokomori</t>
-  </si>
-  <si>
-    <t>Ranz</t>
-  </si>
-  <si>
-    <t>Qing Nie</t>
-  </si>
-  <si>
-    <t>Lander</t>
-  </si>
-  <si>
-    <t>Steve Frank</t>
-  </si>
-  <si>
-    <t>Siryaporn</t>
-  </si>
-  <si>
-    <t>Anya Grosberg</t>
-  </si>
-  <si>
-    <t>Celia Faiola</t>
+    <t>Whiteson</t>
   </si>
   <si>
     <t>Devon Lawson</t>
-  </si>
-  <si>
-    <t>Jack Xin</t>
-  </si>
-  <si>
-    <t>Bruce Blumberg</t>
-  </si>
-  <si>
-    <t>Grace Yuh Chwen Lee</t>
-  </si>
-  <si>
-    <t>Whiteson</t>
   </si>
 </sst>
 </file>
@@ -684,22 +684,22 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
         <v>42</v>
@@ -708,55 +708,55 @@
         <v>65</v>
       </c>
       <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" t="s">
-        <v>60</v>
-      </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" t="s">
-        <v>44</v>
-      </c>
       <c r="W2" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="X2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Z2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -767,79 +767,79 @@
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" t="s">
-        <v>49</v>
-      </c>
       <c r="V3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="X3" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -847,82 +847,82 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
         <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
         <v>41</v>
       </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R4" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="S4" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" t="s">
         <v>47</v>
       </c>
-      <c r="U4" t="s">
-        <v>44</v>
-      </c>
-      <c r="V4" t="s">
-        <v>51</v>
-      </c>
       <c r="W4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="X4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Y4" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="Z4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -930,82 +930,82 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" t="s">
-        <v>42</v>
-      </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" t="s">
-        <v>57</v>
-      </c>
-      <c r="T5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5" t="s">
-        <v>60</v>
-      </c>
-      <c r="W5" t="s">
-        <v>51</v>
-      </c>
-      <c r="X5" t="s">
-        <v>69</v>
-      </c>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="Z5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA5" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -1013,82 +1013,82 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" t="s">
         <v>55</v>
       </c>
-      <c r="J6" t="s">
+      <c r="T6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" t="s">
+        <v>71</v>
+      </c>
+      <c r="W6" t="s">
+        <v>70</v>
+      </c>
+      <c r="X6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA6" t="s">
         <v>43</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" t="s">
-        <v>39</v>
-      </c>
-      <c r="S6" t="s">
-        <v>72</v>
-      </c>
-      <c r="T6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U6" t="s">
-        <v>60</v>
-      </c>
-      <c r="V6" t="s">
-        <v>39</v>
-      </c>
-      <c r="W6" t="s">
-        <v>39</v>
-      </c>
-      <c r="X6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1096,82 +1096,82 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V7" t="s">
+        <v>70</v>
+      </c>
+      <c r="W7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T7" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" t="s">
-        <v>57</v>
-      </c>
-      <c r="V7" t="s">
-        <v>47</v>
-      </c>
-      <c r="W7" t="s">
-        <v>39</v>
-      </c>
-      <c r="X7" t="s">
-        <v>39</v>
-      </c>
       <c r="Y7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="Z7" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AA7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1182,79 +1182,79 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" t="s">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="P8" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" t="s">
+        <v>70</v>
+      </c>
+      <c r="T8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U8" t="s">
         <v>47</v>
       </c>
-      <c r="K8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" t="s">
-        <v>43</v>
-      </c>
-      <c r="S8" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8" t="s">
-        <v>59</v>
-      </c>
-      <c r="U8" t="s">
-        <v>72</v>
-      </c>
       <c r="V8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="W8" t="s">
         <v>39</v>
       </c>
       <c r="X8" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Y8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z8" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="AA8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1262,82 +1262,82 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" t="s">
         <v>39</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" t="s">
         <v>66</v>
       </c>
-      <c r="L9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="U9" t="s">
+        <v>53</v>
+      </c>
+      <c r="V9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W9" t="s">
+        <v>71</v>
+      </c>
+      <c r="X9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA9" t="s">
         <v>59</v>
-      </c>
-      <c r="N9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R9" t="s">
-        <v>56</v>
-      </c>
-      <c r="S9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T9" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V9" t="s">
-        <v>72</v>
-      </c>
-      <c r="W9" t="s">
-        <v>39</v>
-      </c>
-      <c r="X9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1345,82 +1345,82 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="Q10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" t="s">
+        <v>63</v>
+      </c>
+      <c r="S10" t="s">
+        <v>69</v>
+      </c>
+      <c r="T10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V10" t="s">
+        <v>52</v>
+      </c>
+      <c r="W10" t="s">
+        <v>42</v>
+      </c>
+      <c r="X10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA10" t="s">
         <v>51</v>
-      </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>43</v>
-      </c>
-      <c r="R10" t="s">
-        <v>52</v>
-      </c>
-      <c r="S10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10" t="s">
-        <v>39</v>
-      </c>
-      <c r="U10" t="s">
-        <v>48</v>
-      </c>
-      <c r="V10" t="s">
-        <v>45</v>
-      </c>
-      <c r="W10" t="s">
-        <v>50</v>
-      </c>
-      <c r="X10" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1428,82 +1428,82 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="P11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="R11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" t="s">
+        <v>51</v>
+      </c>
+      <c r="V11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X11" t="s">
         <v>47</v>
       </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="Y11" t="s">
         <v>48</v>
       </c>
-      <c r="K11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R11" t="s">
-        <v>39</v>
-      </c>
-      <c r="S11" t="s">
-        <v>71</v>
-      </c>
-      <c r="T11" t="s">
-        <v>43</v>
-      </c>
-      <c r="U11" t="s">
-        <v>39</v>
-      </c>
-      <c r="V11" t="s">
-        <v>67</v>
-      </c>
-      <c r="W11" t="s">
-        <v>52</v>
-      </c>
-      <c r="X11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>51</v>
-      </c>
       <c r="Z11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AA11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1511,82 +1511,82 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -1594,82 +1594,82 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" t="s">
         <v>43</v>
       </c>
-      <c r="F13" t="s">
+      <c r="K13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" t="s">
         <v>47</v>
       </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>44</v>
-      </c>
-      <c r="R13" t="s">
-        <v>39</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="U13" t="s">
+        <v>42</v>
+      </c>
+      <c r="V13" t="s">
         <v>56</v>
       </c>
-      <c r="T13" t="s">
-        <v>67</v>
-      </c>
-      <c r="U13" t="s">
-        <v>39</v>
-      </c>
-      <c r="V13" t="s">
-        <v>39</v>
-      </c>
       <c r="W13" t="s">
+        <v>42</v>
+      </c>
+      <c r="X13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA13" t="s">
         <v>60</v>
-      </c>
-      <c r="X13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
